--- a/02 - Superman.xlsx
+++ b/02 - Superman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salvatore/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E53577-29F2-CE44-8687-1148FBB3F244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7192F4-B81E-447C-9DBE-68876BEC65C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="9270" yWindow="1000" windowWidth="36340" windowHeight="18960" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
   <si>
     <t>Da</t>
   </si>
@@ -692,12 +692,73 @@
   <si>
     <t>DC Classic #6</t>
   </si>
+  <si>
+    <t>Superman I Play Press da #66</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 da #2 a #85</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 #86</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 #89</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 da #91 a #99</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 da #101 a #106</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 da #108 a #109</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Superman Play Press v.1 #110 + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inedito</t>
+    </r>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 da #112 a #116</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 #117</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1  #119</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1 #120</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1  #122</t>
+  </si>
+  <si>
+    <t>Superman Play Press v.1  #124 #125</t>
+  </si>
+  <si>
+    <t>Superman (II) # 7 (Play Press)</t>
+  </si>
+  <si>
+    <t>Superman TP 1, TP 2 Superman II Play Press fino a 15Superman: Presidente Luthor (Planeta DeAgostini)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +923,19 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans Condensed"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -896,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -922,10 +996,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -941,7 +1020,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1263,11 +1342,11 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="33.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -1355,19 +1434,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
   <dimension ref="A4:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A33" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.83203125" customWidth="1"/>
-    <col min="5" max="5" width="68.83203125" customWidth="1"/>
+    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.81640625" customWidth="1"/>
+    <col min="5" max="5" width="68.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="22">
+    <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1402,7 +1481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="24">
+    <row r="12" spans="1:1" ht="23.5">
       <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
@@ -1432,7 +1511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="22">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="22">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B21" s="2">
         <v>584</v>
       </c>
@@ -1451,8 +1530,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="22"/>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="22">
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="21"/>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B23" s="2">
         <v>621</v>
       </c>
@@ -1466,7 +1545,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="22">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B25" s="2">
         <v>643</v>
       </c>
@@ -1477,7 +1556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" ht="22">
+    <row r="26" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="B26" s="20">
         <v>649</v>
       </c>
@@ -1488,7 +1567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" ht="22">
+    <row r="27" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="B27" s="20">
         <v>651</v>
       </c>
@@ -1499,7 +1578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="20" customFormat="1" ht="22">
+    <row r="28" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="B28" s="20">
         <v>652</v>
       </c>
@@ -1510,7 +1589,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" ht="22">
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="21">
       <c r="B29" s="20">
         <v>653</v>
       </c>
@@ -1521,7 +1600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="22">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B30" s="2">
         <v>654</v>
       </c>
@@ -1532,7 +1611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="17" customFormat="1" ht="22">
+    <row r="31" spans="1:5" s="17" customFormat="1" ht="21">
       <c r="B31" s="17">
         <v>655</v>
       </c>
@@ -1546,7 +1625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="17" customFormat="1" ht="22">
+    <row r="32" spans="1:5" s="17" customFormat="1" ht="21">
       <c r="B32" s="17">
         <v>657</v>
       </c>
@@ -1560,7 +1639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="33" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B33" s="17">
         <v>658</v>
       </c>
@@ -1574,7 +1653,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="34" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B34" s="17">
         <v>659</v>
       </c>
@@ -1588,7 +1667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="2:5" s="2" customFormat="1" ht="22">
+    <row r="35" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B35" s="2">
         <v>660</v>
       </c>
@@ -1599,7 +1678,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="2" customFormat="1" ht="22">
+    <row r="36" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B36" s="2">
         <v>662</v>
       </c>
@@ -1610,7 +1689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="37" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B37" s="17">
         <v>664</v>
       </c>
@@ -1621,7 +1700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="38" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B38" s="17">
         <v>666</v>
       </c>
@@ -1632,7 +1711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="39" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B39" s="17">
         <v>667</v>
       </c>
@@ -1643,7 +1722,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="40" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B40" s="17">
         <v>668</v>
       </c>
@@ -1654,7 +1733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="41" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B41" s="17">
         <v>670</v>
       </c>
@@ -1665,7 +1744,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="42" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B42" s="17">
         <v>671</v>
       </c>
@@ -1676,7 +1755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="43" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B43" s="17">
         <v>673</v>
       </c>
@@ -1687,7 +1766,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="44" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B44" s="17">
         <v>674</v>
       </c>
@@ -1701,7 +1780,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="45" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B45" s="17">
         <v>675</v>
       </c>
@@ -1715,7 +1794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="46" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B46" s="17">
         <v>676</v>
       </c>
@@ -1729,7 +1808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="47" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B47" s="17">
         <v>677</v>
       </c>
@@ -1743,7 +1822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="48" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B48" s="17">
         <v>679</v>
       </c>
@@ -1755,7 +1834,7 @@
       </c>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="49" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B49" s="17">
         <v>680</v>
       </c>
@@ -1769,7 +1848,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="50" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B50" s="17">
         <v>681</v>
       </c>
@@ -1781,7 +1860,7 @@
       </c>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="51" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B51" s="17">
         <v>682</v>
       </c>
@@ -1793,7 +1872,7 @@
       </c>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="2:5" s="17" customFormat="1" ht="22">
+    <row r="52" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B52" s="17">
         <v>683</v>
       </c>
@@ -1807,7 +1886,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="2:5" s="2" customFormat="1" ht="22">
+    <row r="53" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B53" s="2">
         <v>684</v>
       </c>
@@ -1818,7 +1897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="2:5" s="2" customFormat="1" ht="22">
+    <row r="54" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B54" s="2">
         <v>685</v>
       </c>
@@ -1843,20 +1922,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED857CF-2F5C-46BD-BF3D-A68E695F976C}">
-  <dimension ref="A4:D46"/>
+  <dimension ref="A4:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" customWidth="1"/>
+    <col min="1" max="1" width="46.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.453125" customWidth="1"/>
+    <col min="6" max="6" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="22">
+    <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1866,37 +1947,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="20">
+    <row r="7" spans="1:1" ht="19.5">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20">
+    <row r="8" spans="1:1" ht="19.5">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20">
+    <row r="9" spans="1:1" ht="19.5">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="20">
+    <row r="10" spans="1:1" ht="19.5">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="20">
+    <row r="11" spans="1:1" ht="19.5">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="22">
+    <row r="12" spans="1:1" ht="21">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="20">
+    <row r="13" spans="1:1" ht="19.5">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1921,7 +2002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B21" s="2">
         <v>424</v>
       </c>
@@ -1940,7 +2021,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="22" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B22" s="20">
         <v>463</v>
       </c>
@@ -1951,7 +2032,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B23" s="2">
         <v>467</v>
       </c>
@@ -1962,7 +2043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="24" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B24" s="20">
         <v>468</v>
       </c>
@@ -1973,7 +2054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="25" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B25" s="20">
         <v>469</v>
       </c>
@@ -1984,7 +2065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="26" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B26" s="20">
         <v>470</v>
       </c>
@@ -1995,7 +2076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="27" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B27" s="20">
         <v>471</v>
       </c>
@@ -2006,7 +2087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="28" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B28" s="20">
         <v>472</v>
       </c>
@@ -2017,7 +2098,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="22">
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B29" s="2">
         <v>473</v>
       </c>
@@ -2028,7 +2109,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="30" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B30" s="20">
         <v>477</v>
       </c>
@@ -2039,7 +2120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="31" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B31" s="20">
         <v>479</v>
       </c>
@@ -2050,7 +2131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="20" customFormat="1" ht="22">
+    <row r="32" spans="1:4" s="20" customFormat="1" ht="21">
       <c r="B32" s="20">
         <v>480</v>
       </c>
@@ -2061,7 +2142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="33" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B33" s="20">
         <v>481</v>
       </c>
@@ -2072,7 +2153,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="34" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B34" s="20">
         <v>483</v>
       </c>
@@ -2083,7 +2164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="35" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B35" s="20">
         <v>484</v>
       </c>
@@ -2094,7 +2175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="36" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B36" s="20">
         <v>486</v>
       </c>
@@ -2105,7 +2186,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="37" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B37" s="20">
         <v>487</v>
       </c>
@@ -2116,7 +2197,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="38" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B38" s="20">
         <v>489</v>
       </c>
@@ -2127,7 +2208,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="39" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B39" s="20">
         <v>490</v>
       </c>
@@ -2138,7 +2219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="40" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B40" s="20">
         <v>492</v>
       </c>
@@ -2149,7 +2230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="41" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B41" s="20">
         <v>493</v>
       </c>
@@ -2160,7 +2241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="42" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B42" s="20">
         <v>495</v>
       </c>
@@ -2171,7 +2252,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="43" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B43" s="20">
         <v>496</v>
       </c>
@@ -2182,7 +2263,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B44" s="2">
         <v>497</v>
       </c>
@@ -2193,7 +2274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B45" s="2">
         <v>498</v>
       </c>
@@ -2204,7 +2285,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="46" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B46" s="2">
         <v>499</v>
       </c>
@@ -2213,11 +2294,199 @@
       </c>
       <c r="D46" s="2" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="21">
+      <c r="B47" s="2">
+        <v>500</v>
+      </c>
+      <c r="C47" s="2">
+        <v>537</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B48" s="20">
+        <v>538</v>
+      </c>
+      <c r="C48" s="20">
+        <v>538</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="21">
+      <c r="B49" s="2">
+        <v>539</v>
+      </c>
+      <c r="C49" s="2">
+        <v>539</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B50" s="20">
+        <v>540</v>
+      </c>
+      <c r="C50" s="20">
+        <v>543</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="21">
+      <c r="B51" s="2">
+        <v>544</v>
+      </c>
+      <c r="C51" s="2">
+        <v>547</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B52" s="20">
+        <v>548</v>
+      </c>
+      <c r="C52" s="20">
+        <v>549</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="21">
+      <c r="B53" s="2">
+        <v>550</v>
+      </c>
+      <c r="C53" s="2">
+        <v>550</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B54" s="20">
+        <v>551</v>
+      </c>
+      <c r="C54" s="20">
+        <v>554</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="21">
+      <c r="B55" s="2">
+        <v>555</v>
+      </c>
+      <c r="C55" s="2">
+        <v>555</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B56" s="20">
+        <v>556</v>
+      </c>
+      <c r="C56" s="20">
+        <v>556</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="21">
+      <c r="B57" s="2">
+        <v>557</v>
+      </c>
+      <c r="C57" s="2">
+        <v>557</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B58" s="20">
+        <v>558</v>
+      </c>
+      <c r="C58" s="20">
+        <v>561</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B59" s="20">
+        <v>562</v>
+      </c>
+      <c r="C59" s="20">
+        <v>563</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="23" customFormat="1" ht="21">
+      <c r="B60" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="C60" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="21">
+      <c r="B61" s="20">
+        <v>563</v>
+      </c>
+      <c r="C61" s="20">
+        <v>572</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="21">
+      <c r="B62" s="2">
+        <v>573</v>
+      </c>
+      <c r="C62" s="2">
+        <v>574</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="21">
+      <c r="B63" s="20">
+        <v>575</v>
+      </c>
+      <c r="C63" s="20">
+        <v>584</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/superman" xr:uid="{12A27C7A-DD15-4B01-BF70-00DFF1147EE8}"/>
+    <hyperlink ref="D62" r:id="rId2" display="https://www.comicsbox.it/albo/SUP2_PP_007" xr:uid="{2A55346E-58BF-4019-9E1F-E1D13D6FC805}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2227,17 +2496,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF5FAC-CDFC-416F-92FB-D0D5F204A05B}">
   <dimension ref="A4:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="19">
+    <row r="4" spans="1:1" ht="18">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -2247,32 +2516,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="20">
+    <row r="7" spans="1:1" ht="19.5">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="20">
+    <row r="8" spans="1:1" ht="19.5">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="20">
+    <row r="9" spans="1:1" ht="19.5">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="20">
+    <row r="10" spans="1:1" ht="19.5">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="20">
+    <row r="11" spans="1:1" ht="19.5">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="20">
+    <row r="12" spans="1:1" ht="19.5">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B18" s="2">
         <v>1</v>
       </c>
@@ -2306,7 +2575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="19" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B19" s="20">
         <v>32</v>
       </c>
@@ -2317,7 +2586,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B20" s="2">
         <v>33</v>
       </c>
@@ -2328,7 +2597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="21" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B21" s="20">
         <v>40</v>
       </c>
@@ -2339,7 +2608,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="22" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B22" s="2">
         <v>45</v>
       </c>
@@ -2350,7 +2619,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="23" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B23" s="20">
         <v>46</v>
       </c>
@@ -2361,7 +2630,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="24" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B24" s="20">
         <v>47</v>
       </c>
@@ -2372,7 +2641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="25" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B25" s="20">
         <v>48</v>
       </c>
@@ -2383,7 +2652,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="26" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B26" s="20">
         <v>49</v>
       </c>
@@ -2394,7 +2663,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="27" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B27" s="20">
         <v>50</v>
       </c>
@@ -2405,7 +2674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B28" s="2">
         <v>51</v>
       </c>
@@ -2416,7 +2685,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="22" customFormat="1" ht="22">
+    <row r="29" spans="2:4" s="22" customFormat="1" ht="21">
       <c r="B29" s="22">
         <v>53</v>
       </c>
@@ -2427,7 +2696,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="30" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B30" s="20">
         <v>55</v>
       </c>
@@ -2438,7 +2707,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="31" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B31" s="20">
         <v>57</v>
       </c>
@@ -2449,7 +2718,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="32" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B32" s="20">
         <v>58</v>
       </c>
@@ -2460,7 +2729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="33" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B33" s="20">
         <v>59</v>
       </c>
@@ -2471,7 +2740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="34" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B34" s="20">
         <v>60</v>
       </c>
@@ -2482,7 +2751,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="35" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B35" s="20">
         <v>62</v>
       </c>
@@ -2493,7 +2762,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="36" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B36" s="20">
         <v>63</v>
       </c>
@@ -2504,7 +2773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="37" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B37" s="20">
         <v>65</v>
       </c>
@@ -2515,7 +2784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="38" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B38" s="20">
         <v>66</v>
       </c>
@@ -2526,7 +2795,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="39" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B39" s="20">
         <v>68</v>
       </c>
@@ -2537,7 +2806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="40" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B40" s="20">
         <v>69</v>
       </c>
@@ -2548,7 +2817,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="41" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B41" s="20">
         <v>71</v>
       </c>
@@ -2559,7 +2828,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="42" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B42" s="20">
         <v>72</v>
       </c>
@@ -2570,7 +2839,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B43" s="2">
         <v>74</v>
       </c>
@@ -2588,19 +2857,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64553A6-9DB0-4EE9-9273-2920E8367941}">
-  <dimension ref="A4:D31"/>
+  <dimension ref="A4:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A8" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
+    <col min="1" max="1" width="45.6328125" customWidth="1"/>
+    <col min="4" max="4" width="51.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="22">
+    <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2610,37 +2879,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="18">
+    <row r="7" spans="1:1" ht="17.5">
       <c r="A7" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18">
+    <row r="8" spans="1:1" ht="17.5">
       <c r="A8" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18">
+    <row r="9" spans="1:1" ht="17.5">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18">
+    <row r="10" spans="1:1" ht="17.5">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="18">
+    <row r="11" spans="1:1" ht="17.5">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="19">
+    <row r="12" spans="1:1" ht="18.5">
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18">
+    <row r="13" spans="1:1" ht="17.5">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -2650,7 +2919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="18" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B18" s="20">
         <v>1</v>
       </c>
@@ -2669,7 +2938,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="19" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B19" s="20">
         <v>2</v>
       </c>
@@ -2680,7 +2949,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="20" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B20" s="20">
         <v>3</v>
       </c>
@@ -2691,7 +2960,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="21" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B21" s="20">
         <v>4</v>
       </c>
@@ -2702,7 +2971,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="22" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B22" s="20">
         <v>6</v>
       </c>
@@ -2713,7 +2982,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="23" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B23" s="20">
         <v>7</v>
       </c>
@@ -2724,7 +2993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="24" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B24" s="20">
         <v>9</v>
       </c>
@@ -2735,7 +3004,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="25" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B25" s="20">
         <v>10</v>
       </c>
@@ -2746,7 +3015,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="26" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B26" s="20">
         <v>12</v>
       </c>
@@ -2757,7 +3026,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="27" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B27" s="20">
         <v>13</v>
       </c>
@@ -2768,7 +3037,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="28" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B28" s="20">
         <v>15</v>
       </c>
@@ -2779,7 +3048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="20" customFormat="1" ht="22">
+    <row r="29" spans="2:4" s="20" customFormat="1" ht="21">
       <c r="B29" s="20">
         <v>16</v>
       </c>
@@ -2790,7 +3059,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B30" s="2">
         <v>18</v>
       </c>
@@ -2801,7 +3070,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="2" customFormat="1" ht="22">
+    <row r="31" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B31" s="2">
         <v>20</v>
       </c>
@@ -2810,6 +3079,17 @@
       </c>
       <c r="D31" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B33" s="2">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2828,16 +3108,16 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
     <col min="5" max="5" width="43" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="22">
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2845,8 +3125,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="22"/>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="22">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="21"/>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -2863,7 +3143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="22">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -2880,7 +3160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="22">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2897,7 +3177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="22">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>

--- a/02 - Superman.xlsx
+++ b/02 - Superman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7192F4-B81E-447C-9DBE-68876BEC65C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F7150-8FEF-4303-B814-1078151817D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="1000" windowWidth="36340" windowHeight="18960" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="8380" yWindow="1010" windowWidth="36370" windowHeight="18960" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="175">
   <si>
     <t>Da</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Action Comics (vol.1)</t>
-  </si>
-  <si>
-    <t>Superman vol 2 # 1</t>
   </si>
   <si>
     <t>DC Comics</t>
@@ -753,12 +750,117 @@
   <si>
     <t>Superman TP 1, TP 2 Superman II Play Press fino a 15Superman: Presidente Luthor (Planeta DeAgostini)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Superman vol 2 </t>
+  </si>
+  <si>
+    <t>Superman vol 1</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1939</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-714</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 488</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>formato:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> comic-book</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nazione:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> USA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tipologia:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> serie regolare</t>
+    </r>
+  </si>
+  <si>
+    <t>DC Comics Story #3, #6</t>
+  </si>
+  <si>
+    <t>DC Comics Story #13</t>
+  </si>
+  <si>
+    <t>Il #239 contiene ristampe</t>
+  </si>
+  <si>
+    <t>DC Comics Story #18</t>
+  </si>
+  <si>
+    <t>Seconda storia (5pp)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,6 +1038,19 @@
       <color rgb="FFFF0000"/>
       <name val="Open Sans Condensed"/>
     </font>
+    <font>
+      <i/>
+      <sz val="6"/>
+      <color rgb="FF999999"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF6A6A5D"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -970,7 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1001,6 +1116,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1369,12 +1486,12 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1410,7 +1527,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>1987</v>
@@ -1418,7 +1535,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11">
         <v>1991</v>
@@ -1432,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
-  <dimension ref="A4:E54"/>
+  <dimension ref="A4:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1448,67 +1565,67 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="23">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="23">
       <c r="A8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="23">
       <c r="A9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="23">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="23">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="23.5">
       <c r="A12" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="23">
       <c r="A13" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="21">
@@ -1521,400 +1638,417 @@
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B21" s="2">
-        <v>584</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>170</v>
+      </c>
+      <c r="E21" s="26">
+        <v>21610</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1" ht="21"/>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B23" s="2">
-        <v>621</v>
-      </c>
-      <c r="C23" s="2">
-        <v>635</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="21"/>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="21"/>
     <row r="25" spans="1:5" s="2" customFormat="1" ht="21">
       <c r="B25" s="2">
+        <v>584</v>
+      </c>
+      <c r="C25" s="2">
+        <v>600</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="21"/>
+    <row r="27" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B27" s="2">
+        <v>621</v>
+      </c>
+      <c r="C27" s="2">
+        <v>635</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="B29" s="2">
         <v>643</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C29" s="2">
         <v>648</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="B26" s="20">
+      <c r="D29" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="B30" s="20">
         <v>649</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C30" s="20">
         <v>650</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="B27" s="20">
+      <c r="D30" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="B31" s="20">
         <v>651</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C31" s="20">
         <v>651</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="B28" s="20">
+      <c r="D31" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="20" customFormat="1" ht="21">
+      <c r="B32" s="20">
         <v>652</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C32" s="20">
         <v>652</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" ht="21">
-      <c r="B29" s="20">
+      <c r="D32" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" s="20" customFormat="1" ht="21">
+      <c r="B33" s="20">
         <v>653</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C33" s="20">
         <v>653</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="B30" s="2">
+      <c r="D33" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B34" s="2">
         <v>654</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C34" s="2">
         <v>654</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="17" customFormat="1" ht="21">
-      <c r="B31" s="17">
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="17" customFormat="1" ht="21">
+      <c r="B35" s="17">
         <v>655</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C35" s="17">
         <v>656</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D35" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="19" t="s">
+    </row>
+    <row r="36" spans="2:5" s="17" customFormat="1" ht="21">
+      <c r="B36" s="17">
+        <v>657</v>
+      </c>
+      <c r="C36" s="17">
+        <v>657</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" s="17" customFormat="1" ht="21">
-      <c r="B32" s="17">
-        <v>657</v>
-      </c>
-      <c r="C32" s="17">
-        <v>657</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" s="17" customFormat="1" ht="21">
-      <c r="B33" s="17">
-        <v>658</v>
-      </c>
-      <c r="C33" s="17">
-        <v>658</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" s="17" customFormat="1" ht="21">
-      <c r="B34" s="17">
-        <v>659</v>
-      </c>
-      <c r="C34" s="17">
-        <v>659</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="2" customFormat="1" ht="21">
-      <c r="B35" s="2">
-        <v>660</v>
-      </c>
-      <c r="C35" s="2">
-        <v>661</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" s="2" customFormat="1" ht="21">
-      <c r="B36" s="2">
-        <v>662</v>
-      </c>
-      <c r="C36" s="2">
-        <v>663</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>146</v>
+      <c r="E36" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B37" s="17">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C37" s="17">
-        <v>665</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>70</v>
+        <v>658</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B38" s="17">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="C38" s="17">
-        <v>666</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" s="17" customFormat="1" ht="21">
-      <c r="B39" s="17">
-        <v>667</v>
-      </c>
-      <c r="C39" s="17">
-        <v>667</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="17" customFormat="1" ht="21">
-      <c r="B40" s="17">
-        <v>668</v>
-      </c>
-      <c r="C40" s="17">
-        <v>669</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>73</v>
+        <v>659</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B39" s="2">
+        <v>660</v>
+      </c>
+      <c r="C39" s="2">
+        <v>661</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B40" s="2">
+        <v>662</v>
+      </c>
+      <c r="C40" s="2">
+        <v>663</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B41" s="17">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C41" s="17">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B42" s="17">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C42" s="17">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B43" s="17">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C43" s="17">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B44" s="17">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C44" s="17">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B45" s="17">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C45" s="17">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B46" s="17">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C46" s="17">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B47" s="17">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C47" s="17">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B48" s="17">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C48" s="17">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="49" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B49" s="17">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C49" s="17">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B50" s="17">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C50" s="17">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="51" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B51" s="17">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C51" s="17">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51" s="20"/>
+        <v>79</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="52" spans="2:5" s="17" customFormat="1" ht="21">
       <c r="B52" s="17">
+        <v>679</v>
+      </c>
+      <c r="C52" s="17">
+        <v>679</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="2:5" s="17" customFormat="1" ht="21">
+      <c r="B53" s="17">
+        <v>680</v>
+      </c>
+      <c r="C53" s="17">
+        <v>680</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" s="17" customFormat="1" ht="21">
+      <c r="B54" s="17">
+        <v>681</v>
+      </c>
+      <c r="C54" s="17">
+        <v>681</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="2:5" s="17" customFormat="1" ht="21">
+      <c r="B55" s="17">
+        <v>682</v>
+      </c>
+      <c r="C55" s="17">
+        <v>682</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="2:5" s="17" customFormat="1" ht="21">
+      <c r="B56" s="17">
         <v>683</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C56" s="17">
         <v>683</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D56" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" s="2" customFormat="1" ht="21">
-      <c r="B53" s="2">
+    </row>
+    <row r="57" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B57" s="2">
         <v>684</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C57" s="2">
         <v>684</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" s="2" customFormat="1" ht="21">
-      <c r="B54" s="2">
+      <c r="D57" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B58" s="2">
         <v>685</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C58" s="2">
         <v>685</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>54</v>
+      <c r="D58" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/superman" xr:uid="{2A412A41-61AA-4684-991D-ABC7B7219FA5}"/>
-    <hyperlink ref="D31" r:id="rId2" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{7137CC22-03C1-402F-BBCA-C4B50300E6BB}"/>
-    <hyperlink ref="D32" r:id="rId3" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{14CFF65F-78F3-437F-B7B9-9BF1C1862CBD}"/>
-    <hyperlink ref="D33" r:id="rId4" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{DEBCD009-2775-4577-8300-126B0662019A}"/>
-    <hyperlink ref="D34" r:id="rId5" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{1E461B4F-8295-4C31-A545-0871CE1FE3A1}"/>
+    <hyperlink ref="D35" r:id="rId2" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{7137CC22-03C1-402F-BBCA-C4B50300E6BB}"/>
+    <hyperlink ref="D36" r:id="rId3" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{14CFF65F-78F3-437F-B7B9-9BF1C1862CBD}"/>
+    <hyperlink ref="D37" r:id="rId4" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{DEBCD009-2775-4577-8300-126B0662019A}"/>
+    <hyperlink ref="D38" r:id="rId5" tooltip="Avventure di Superman # 38" display="https://www.comicsbox.it/albo/AVVSUP_A_038" xr:uid="{1E461B4F-8295-4C31-A545-0871CE1FE3A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1924,7 +2058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED857CF-2F5C-46BD-BF3D-A68E695F976C}">
   <dimension ref="A4:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -1939,67 +2073,67 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19.5">
       <c r="A7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="19.5">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19.5">
       <c r="A9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19.5">
       <c r="A10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="19.5">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21">
       <c r="A12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19.5">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" ht="21">
@@ -2018,7 +2152,7 @@
         <v>462</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2029,7 +2163,7 @@
         <v>466</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="21">
@@ -2040,7 +2174,7 @@
         <v>467</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2051,7 +2185,7 @@
         <v>468</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2062,7 +2196,7 @@
         <v>469</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2073,7 +2207,7 @@
         <v>470</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2084,7 +2218,7 @@
         <v>471</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2095,7 +2229,7 @@
         <v>472</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="2" customFormat="1" ht="21">
@@ -2106,7 +2240,7 @@
         <v>476</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2117,7 +2251,7 @@
         <v>478</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2128,7 +2262,7 @@
         <v>479</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="20" customFormat="1" ht="21">
@@ -2139,7 +2273,7 @@
         <v>480</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2150,7 +2284,7 @@
         <v>482</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2161,7 +2295,7 @@
         <v>483</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2172,7 +2306,7 @@
         <v>485</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2183,7 +2317,7 @@
         <v>486</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2194,7 +2328,7 @@
         <v>488</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2205,7 +2339,7 @@
         <v>489</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2216,7 +2350,7 @@
         <v>491</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2227,7 +2361,7 @@
         <v>492</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2238,7 +2372,7 @@
         <v>494</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2249,7 +2383,7 @@
         <v>495</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2260,7 +2394,7 @@
         <v>496</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2271,7 +2405,7 @@
         <v>497</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2282,7 +2416,7 @@
         <v>498</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2293,7 +2427,7 @@
         <v>499</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="21">
@@ -2304,7 +2438,7 @@
         <v>537</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2315,7 +2449,7 @@
         <v>538</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="21">
@@ -2326,7 +2460,7 @@
         <v>539</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2337,7 +2471,7 @@
         <v>543</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="21">
@@ -2348,7 +2482,7 @@
         <v>547</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2359,7 +2493,7 @@
         <v>549</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="21">
@@ -2370,7 +2504,7 @@
         <v>550</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2381,7 +2515,7 @@
         <v>554</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="21">
@@ -2392,7 +2526,7 @@
         <v>555</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2403,7 +2537,7 @@
         <v>556</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="21">
@@ -2414,7 +2548,7 @@
         <v>557</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2425,7 +2559,7 @@
         <v>561</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2436,7 +2570,7 @@
         <v>563</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="23" customFormat="1" ht="21">
@@ -2447,7 +2581,7 @@
         <v>1000000</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="21">
@@ -2458,7 +2592,7 @@
         <v>572</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="21">
@@ -2469,7 +2603,7 @@
         <v>574</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="2:4" ht="21">
@@ -2480,7 +2614,7 @@
         <v>584</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2494,360 +2628,524 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF5FAC-CDFC-416F-92FB-D0D5F204A05B}">
-  <dimension ref="A4:D43"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="31.1796875" customWidth="1"/>
     <col min="4" max="4" width="43.6328125" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="18">
-      <c r="A4" s="7" t="s">
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="B12" s="2">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="26">
+        <v>21490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="B14" s="2">
+        <v>233</v>
+      </c>
+      <c r="C14" s="2">
+        <v>238</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="26">
+        <v>25934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="B15" s="2">
+        <v>240</v>
+      </c>
+      <c r="C15" s="2">
+        <v>242</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="26">
+        <v>26177</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="B17" s="2">
+        <v>294</v>
+      </c>
+      <c r="C17" s="2">
+        <v>294</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="26">
+        <v>26177</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="B19" s="2">
+        <v>301</v>
+      </c>
+      <c r="C19" s="2">
+        <v>302</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="26">
+        <v>27973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="B21" s="2">
+        <v>307</v>
+      </c>
+      <c r="C21" s="2">
+        <v>309</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="26">
+        <v>28430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="21">
+      <c r="F22" s="26"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="27"/>
+    </row>
+    <row r="25" spans="1:7" ht="18">
+      <c r="A25" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5">
+      <c r="A28" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19.5">
-      <c r="A7" s="9" t="s">
+    <row r="29" spans="1:7" ht="19.5">
+      <c r="A29" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="19.5">
-      <c r="A8" s="9" t="s">
+    <row r="30" spans="1:7" ht="19.5">
+      <c r="A30" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="19.5">
-      <c r="A9" s="9" t="s">
+    <row r="31" spans="1:7" ht="19.5">
+      <c r="A31" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="19.5">
-      <c r="A10" s="9" t="s">
+    <row r="32" spans="1:7" ht="19.5">
+      <c r="A32" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="19.5">
-      <c r="A11" s="9" t="s">
+    <row r="33" spans="1:4" ht="19.5">
+      <c r="A33" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="19.5">
-      <c r="A12" s="9" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B17" s="2" t="s">
+    <row r="38" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B18" s="2">
+    <row r="39" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C39" s="2">
         <v>31</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="B40" s="20">
+        <v>32</v>
+      </c>
+      <c r="C40" s="20">
+        <v>32</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B41" s="2">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2">
+        <v>39</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="B42" s="20">
+        <v>40</v>
+      </c>
+      <c r="C42" s="20">
+        <v>44</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B43" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B19" s="20">
-        <v>32</v>
-      </c>
-      <c r="C19" s="20">
-        <v>32</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="C43" s="2">
+        <v>45</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="B44" s="20">
+        <v>46</v>
+      </c>
+      <c r="C44" s="20">
+        <v>46</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="B45" s="20">
+        <v>47</v>
+      </c>
+      <c r="C45" s="20">
+        <v>47</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="B46" s="20">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20">
+        <v>48</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="B47" s="20">
+        <v>49</v>
+      </c>
+      <c r="C47" s="20">
+        <v>49</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="20" customFormat="1" ht="21">
+      <c r="B48" s="20">
+        <v>50</v>
+      </c>
+      <c r="C48" s="20">
+        <v>50</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B49" s="2">
+        <v>51</v>
+      </c>
+      <c r="C49" s="2">
+        <v>52</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="22" customFormat="1" ht="21">
+      <c r="B50" s="22">
+        <v>53</v>
+      </c>
+      <c r="C50" s="22">
+        <v>54</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B51" s="20">
+        <v>55</v>
+      </c>
+      <c r="C51" s="20">
+        <v>56</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B52" s="20">
+        <v>57</v>
+      </c>
+      <c r="C52" s="20">
+        <v>57</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B53" s="20">
+        <v>58</v>
+      </c>
+      <c r="C53" s="20">
+        <v>58</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B54" s="20">
+        <v>59</v>
+      </c>
+      <c r="C54" s="20">
+        <v>59</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B55" s="20">
+        <v>60</v>
+      </c>
+      <c r="C55" s="20">
+        <v>61</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B56" s="20">
+        <v>62</v>
+      </c>
+      <c r="C56" s="20">
+        <v>62</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B57" s="20">
+        <v>63</v>
+      </c>
+      <c r="C57" s="20">
+        <v>64</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B58" s="20">
+        <v>65</v>
+      </c>
+      <c r="C58" s="20">
+        <v>65</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B59" s="20">
+        <v>66</v>
+      </c>
+      <c r="C59" s="20">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B20" s="2">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B21" s="20">
-        <v>40</v>
-      </c>
-      <c r="C21" s="20">
-        <v>44</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B22" s="2">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B23" s="20">
-        <v>46</v>
-      </c>
-      <c r="C23" s="20">
-        <v>46</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B24" s="20">
-        <v>47</v>
-      </c>
-      <c r="C24" s="20">
-        <v>47</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B25" s="20">
-        <v>48</v>
-      </c>
-      <c r="C25" s="20">
-        <v>48</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B26" s="20">
-        <v>49</v>
-      </c>
-      <c r="C26" s="20">
-        <v>49</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B27" s="20">
-        <v>50</v>
-      </c>
-      <c r="C27" s="20">
-        <v>50</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B28" s="2">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="22" customFormat="1" ht="21">
-      <c r="B29" s="22">
-        <v>53</v>
-      </c>
-      <c r="C29" s="22">
-        <v>54</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B30" s="20">
-        <v>55</v>
-      </c>
-      <c r="C30" s="20">
-        <v>56</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B31" s="20">
-        <v>57</v>
-      </c>
-      <c r="C31" s="20">
-        <v>57</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B32" s="20">
-        <v>58</v>
-      </c>
-      <c r="C32" s="20">
-        <v>58</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B33" s="20">
-        <v>59</v>
-      </c>
-      <c r="C33" s="20">
-        <v>59</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B34" s="20">
-        <v>60</v>
-      </c>
-      <c r="C34" s="20">
-        <v>61</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B35" s="20">
-        <v>62</v>
-      </c>
-      <c r="C35" s="20">
-        <v>62</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B36" s="20">
-        <v>63</v>
-      </c>
-      <c r="C36" s="20">
-        <v>64</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B37" s="20">
-        <v>65</v>
-      </c>
-      <c r="C37" s="20">
-        <v>65</v>
-      </c>
-      <c r="D37" s="20" t="s">
+      <c r="D59" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B38" s="20">
-        <v>66</v>
-      </c>
-      <c r="C38" s="20">
-        <v>67</v>
-      </c>
-      <c r="D38" s="20" t="s">
+    <row r="60" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B60" s="20">
+        <v>68</v>
+      </c>
+      <c r="C60" s="20">
+        <v>68</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B61" s="20">
+        <v>69</v>
+      </c>
+      <c r="C61" s="20">
+        <v>70</v>
+      </c>
+      <c r="D61" s="20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B39" s="20">
-        <v>68</v>
-      </c>
-      <c r="C39" s="20">
-        <v>68</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B40" s="20">
-        <v>69</v>
-      </c>
-      <c r="C40" s="20">
-        <v>70</v>
-      </c>
-      <c r="D40" s="20" t="s">
+    <row r="62" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B62" s="20">
+        <v>71</v>
+      </c>
+      <c r="C62" s="20">
+        <v>71</v>
+      </c>
+      <c r="D62" s="20" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B41" s="20">
-        <v>71</v>
-      </c>
-      <c r="C41" s="20">
-        <v>71</v>
-      </c>
-      <c r="D41" s="20" t="s">
+    <row r="63" spans="2:4" s="20" customFormat="1" ht="21">
+      <c r="B63" s="20">
+        <v>72</v>
+      </c>
+      <c r="C63" s="20">
+        <v>73</v>
+      </c>
+      <c r="D63" s="20" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="20" customFormat="1" ht="21">
-      <c r="B42" s="20">
-        <v>72</v>
-      </c>
-      <c r="C42" s="20">
-        <v>73</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B43" s="2">
+    <row r="64" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B64" s="2">
         <v>74</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C64" s="2">
         <v>76</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>97</v>
+      <c r="D64" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2871,52 +3169,52 @@
   <sheetData>
     <row r="4" spans="1:1" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.5">
       <c r="A7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.5">
       <c r="A8" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.5">
       <c r="A9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.5">
       <c r="A10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.5">
       <c r="A11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="18.5">
       <c r="A12" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.5">
       <c r="A13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2935,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2946,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2957,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2968,7 +3266,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2979,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="20" customFormat="1" ht="21">
@@ -2990,7 +3288,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="20" customFormat="1" ht="21">
@@ -3001,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="20" customFormat="1" ht="21">
@@ -3012,7 +3310,7 @@
         <v>11</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="20" customFormat="1" ht="21">
@@ -3023,7 +3321,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="2:4" s="20" customFormat="1" ht="21">
@@ -3034,7 +3332,7 @@
         <v>14</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="20" customFormat="1" ht="21">
@@ -3045,7 +3343,7 @@
         <v>15</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:4" s="20" customFormat="1" ht="21">
@@ -3056,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3067,7 +3365,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3078,7 +3376,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3089,7 +3387,7 @@
         <v>20</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3426,7 @@
     <row r="5" spans="1:5" s="2" customFormat="1" ht="21"/>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="13">
         <v>31990</v>
@@ -3140,12 +3438,12 @@
         <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="13">
         <v>32112</v>
@@ -3157,12 +3455,12 @@
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="13">
         <v>32813</v>
@@ -3174,12 +3472,12 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="21">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="13">
         <v>33117</v>
@@ -3191,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/02 - Superman.xlsx
+++ b/02 - Superman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F7150-8FEF-4303-B814-1078151817D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731130E-2C36-42F5-B308-C09318905328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="1010" windowWidth="36370" windowHeight="18960" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="4450" yWindow="0" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="181">
   <si>
     <t>Da</t>
   </si>
@@ -854,6 +854,57 @@
   </si>
   <si>
     <t>Seconda storia (5pp)</t>
+  </si>
+  <si>
+    <t>Action Comics Vol 2</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2011</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-52</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 57</t>
+    </r>
+  </si>
+  <si>
+    <t>La storica serie dedicata a Superman riparte dal numero uno, nell'ottica all'operazione New 52 che nel 2011 azzera e rilancia tutte le testate della DC Comics.</t>
+  </si>
+  <si>
+    <t>Leggende DC #23, #28</t>
   </si>
 </sst>
 </file>
@@ -1023,6 +1074,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1549,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
-  <dimension ref="A4:E58"/>
+  <dimension ref="A4:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2041,6 +2093,71 @@
       <c r="D58" s="2" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="68" spans="1:3" ht="21.5">
+      <c r="A68" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="2" customFormat="1" ht="21">
+      <c r="B80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" s="2" customFormat="1" ht="21">
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2">
+        <v>12</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2630,8 +2747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF5FAC-CDFC-416F-92FB-D0D5F204A05B}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>

--- a/02 - Superman.xlsx
+++ b/02 - Superman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7731130E-2C36-42F5-B308-C09318905328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD36BD2-5CEC-4598-8B1D-2F9EEBFFF5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4450" yWindow="0" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="43130" windowHeight="21860" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -904,7 +904,7 @@
     <t>La storica serie dedicata a Superman riparte dal numero uno, nell'ottica all'operazione New 52 che nel 2011 azzera e rilancia tutte le testate della DC Comics.</t>
   </si>
   <si>
-    <t>Leggende DC #23, #28</t>
+    <t>Leggende DC #23, #28, #35</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1604,7 @@
   <dimension ref="A4:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -2152,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>180</v>
